--- a/Output/June/productivity_agent/productivity_agent_2022-06-01.xlsx
+++ b/Output/June/productivity_agent/productivity_agent_2022-06-01.xlsx
@@ -26005,7 +26005,7 @@
         <v>0.7529182879377432</v>
       </c>
       <c r="J79">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -26119,7 +26119,7 @@
         <v>0</v>
       </c>
       <c r="AV79">
-        <v>87.03862660944208</v>
+        <v>85.23605150214593</v>
       </c>
       <c r="AW79">
         <v>0</v>
@@ -26233,7 +26233,7 @@
         <v>0</v>
       </c>
       <c r="CH79">
-        <v>1.160515021459228</v>
+        <v>1.136480686695279</v>
       </c>
       <c r="CI79">
         <v>0</v>
@@ -26290,7 +26290,7 @@
         <v>0</v>
       </c>
       <c r="DA79">
-        <v>0.9400152114739853</v>
+        <v>0.925544927236259</v>
       </c>
     </row>
     <row r="80" spans="1:105">

--- a/Output/June/productivity_agent/productivity_agent_2022-06-01.xlsx
+++ b/Output/June/productivity_agent/productivity_agent_2022-06-01.xlsx
@@ -16507,7 +16507,7 @@
         <v>571</v>
       </c>
       <c r="N49">
-        <v>2638</v>
+        <v>2607</v>
       </c>
       <c r="O49">
         <v>571</v>
@@ -16621,7 +16621,7 @@
         <v>0</v>
       </c>
       <c r="AZ49">
-        <v>502.4761904761905</v>
+        <v>496.5714285714286</v>
       </c>
       <c r="BA49">
         <v>475.8333333333334</v>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="CL49">
-        <v>0.5911484593837535</v>
+        <v>0.5842016806722689</v>
       </c>
       <c r="CM49">
         <v>0.5947916666666667</v>
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.5663807678760127</v>
+        <v>0.5620130327580134</v>
       </c>
     </row>
     <row r="50" spans="1:105">
@@ -18409,7 +18409,7 @@
         <v>1953</v>
       </c>
       <c r="N55">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="O55">
         <v>1953</v>
@@ -18523,7 +18523,7 @@
         <v>0</v>
       </c>
       <c r="AZ55">
-        <v>456.6666666666667</v>
+        <v>406.6666666666667</v>
       </c>
       <c r="BA55">
         <v>760.909090909091</v>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="CL55">
-        <v>0.5372549019607843</v>
+        <v>0.4784313725490196</v>
       </c>
       <c r="CM55">
         <v>0.9511363636363638</v>
@@ -18682,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="DA55">
-        <v>0.4247455826437038</v>
+        <v>0.4207196376649519</v>
       </c>
     </row>
     <row r="56" spans="1:105">
@@ -19994,7 +19994,7 @@
         <v>666</v>
       </c>
       <c r="N60">
-        <v>924</v>
+        <v>706</v>
       </c>
       <c r="O60">
         <v>666</v>
@@ -20108,7 +20108,7 @@
         <v>0</v>
       </c>
       <c r="AZ60">
-        <v>792.0000000000001</v>
+        <v>605.1428571428572</v>
       </c>
       <c r="BA60">
         <v>335.7983193277311</v>
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="CL60">
-        <v>0.9317647058823531</v>
+        <v>0.7119327731092437</v>
       </c>
       <c r="CM60">
         <v>0.4197478991596638</v>
@@ -20267,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="DA60">
-        <v>0.3988429217840983</v>
+        <v>0.3650226244343892</v>
       </c>
     </row>
     <row r="61" spans="1:105">
@@ -20311,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>6135</v>
+        <v>6079</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="AZ61">
-        <v>733.2669322709163</v>
+        <v>726.5737051792828</v>
       </c>
       <c r="BA61">
         <v>0</v>
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="CL61">
-        <v>0.8626669791422544</v>
+        <v>0.854792594328568</v>
       </c>
       <c r="CM61">
         <v>0</v>
@@ -20584,7 +20584,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.8241644385026737</v>
+        <v>0.816677807486631</v>
       </c>
     </row>
     <row r="62" spans="1:105">
